--- a/score.xlsx
+++ b/score.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dxx0511a/Desktop/Columbia/MECS_4510_EA/hw2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6384861-4DF4-5544-939F-1E2BF8151AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FF73D6-FE24-CC4B-BC67-284759C7CD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="6540" windowWidth="25620" windowHeight="19060" xr2:uid="{4E5AF951-24C9-A643-9FCD-8B247EF82E82}"/>
+    <workbookView xWindow="28980" yWindow="500" windowWidth="29420" windowHeight="28300" xr2:uid="{4E5AF951-24C9-A643-9FCD-8B247EF82E82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Cover page includes all information</t>
   </si>
@@ -113,9 +114,6 @@
   </si>
   <si>
     <t>connor's HC</t>
-  </si>
-  <si>
-    <t>Daming</t>
   </si>
   <si>
     <t>easy</t>
@@ -483,7 +481,7 @@
   <dimension ref="B2:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -569,6 +567,9 @@
       <c r="C9">
         <v>5</v>
       </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="2:5" ht="20" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
@@ -577,9 +578,6 @@
       <c r="C10">
         <v>5</v>
       </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
       <c r="E10" t="s">
         <v>26</v>
       </c>
@@ -740,10 +738,10 @@
         <v>5</v>
       </c>
       <c r="E25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" t="s">
         <v>28</v>
-      </c>
-      <c r="F25" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="20" x14ac:dyDescent="0.2">
@@ -753,8 +751,8 @@
       <c r="C26">
         <v>5</v>
       </c>
-      <c r="E26" t="s">
-        <v>27</v>
+      <c r="D26">
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="20" x14ac:dyDescent="0.2">
@@ -771,7 +769,567 @@
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D30">
         <f>SUM(D2:D27)</f>
-        <v>95</v>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88556A8-4162-6147-86DC-84EAECAF1CE0}">
+  <dimension ref="C3:E62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f>LOG(C3, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E52" si="0">LOG(C4, 2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1.5849625007211563</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>2.3219280948873622</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>2.5849625007211561</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>2.8073549220576042</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>3.1699250014423126</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>3.3219280948873626</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>3.4594316186372978</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>3.5849625007211565</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>3.7004397181410922</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>3.8073549220576037</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>3.9068905956085187</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>4.08746284125034</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>4.1699250014423122</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>4.2479275134435852</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>4.3219280948873626</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>4.3923174227787607</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>4.4594316186372973</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>4.5235619560570131</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>4.584962500721157</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>25</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>4.6438561897747244</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>4.7004397181410926</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>4.7548875021634691</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>28</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>4.8073549220576037</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>29</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>4.8579809951275728</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>30</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>4.9068905956085187</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>31</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>4.9541963103868758</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>32</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>33</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>5.0443941193584534</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>34</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>5.08746284125034</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>35</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>5.1292830169449664</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>36</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>5.1699250014423122</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>37</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>5.2094533656289501</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>38</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>5.2479275134435852</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>39</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>5.2854022188622487</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>40</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>5.3219280948873626</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>41</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>5.3575520046180838</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>42</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>5.3923174227787607</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <v>43</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>5.4262647547020979</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <v>44</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>5.4594316186372973</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>45</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>5.4918530963296748</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <v>46</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>5.5235619560570131</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C49">
+        <v>47</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>5.5545888516776376</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C50">
+        <v>48</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>5.584962500721157</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C51">
+        <v>49</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>5.6147098441152083</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C52">
+        <v>50</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>5.6438561897747244</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C53">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C56">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C57">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C58">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C59">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C60">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C61">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C62">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/score.xlsx
+++ b/score.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dxx0511a/Desktop/Columbia/MECS_4510_EA/hw2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FF73D6-FE24-CC4B-BC67-284759C7CD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E727796-D3D3-F346-B982-3F106ADA54D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28980" yWindow="500" windowWidth="29420" windowHeight="28300" xr2:uid="{4E5AF951-24C9-A643-9FCD-8B247EF82E82}"/>
+    <workbookView xWindow="35460" yWindow="500" windowWidth="20960" windowHeight="28300" xr2:uid="{4E5AF951-24C9-A643-9FCD-8B247EF82E82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -161,9 +161,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,102 +483,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B21B9F-81FF-D145-8FCC-1AD7DABB9FB1}">
-  <dimension ref="B2:F30"/>
+  <dimension ref="A2:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="183.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="93.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
       <c r="C2">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
       <c r="C3">
         <v>5</v>
       </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
       <c r="C4">
         <v>5</v>
       </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
       <c r="C5">
         <v>5</v>
       </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>5</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
       <c r="C9">
         <v>5</v>
       </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -582,157 +593,166 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
       <c r="C11">
         <v>5</v>
       </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
       <c r="C12">
         <v>5</v>
       </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
       <c r="C13">
         <v>5</v>
       </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
       <c r="C14">
         <v>5</v>
       </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
       <c r="C15">
         <v>5</v>
       </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
+    </row>
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
       <c r="C16">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
       <c r="C17">
         <v>5</v>
       </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
+    </row>
+    <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
       <c r="C18">
         <v>5</v>
       </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
+    </row>
+    <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
       <c r="C19">
         <v>5</v>
       </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
+    </row>
+    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
       <c r="C20">
         <v>5</v>
       </c>
-      <c r="D20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
+    </row>
+    <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
       <c r="C21">
         <v>5</v>
       </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
+    </row>
+    <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
       <c r="C22">
         <v>5</v>
       </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
+    </row>
+    <row r="23" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
       <c r="C23">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
+    <row r="24" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
       <c r="C24">
         <v>5</v>
       </c>
-      <c r="D24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="B25" s="1" t="s">
+    </row>
+    <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -744,32 +764,32 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
+    <row r="26" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
       <c r="C26">
         <v>5</v>
       </c>
-      <c r="D26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
+    </row>
+    <row r="27" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
       <c r="C27">
         <v>5</v>
       </c>
-      <c r="D27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D30">
-        <f>SUM(D2:D27)</f>
-        <v>100</v>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <f>SUM(C2:C27)</f>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
